--- a/config_7.13/task_server.xlsx
+++ b/config_7.13/task_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -2075,10 +2075,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2114,80 +2114,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2204,37 +2136,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2250,10 +2172,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2337,37 +2337,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2385,13 +2373,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2403,19 +2427,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2433,43 +2457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2481,7 +2475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2521,32 +2521,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2554,43 +2533,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2613,8 +2557,64 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2624,10 +2624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2636,133 +2636,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
@@ -3303,7 +3303,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
@@ -7631,10 +7631,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I113" sqref="I113"/>
+      <selection pane="bottomLeft" activeCell="I123" sqref="I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -10267,7 +10267,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="105" s="46" customFormat="1" spans="1:9">
+    <row r="105" s="46" customFormat="1" spans="1:10">
       <c r="A105" s="30">
         <v>104</v>
       </c>
@@ -10289,8 +10289,11 @@
       <c r="I105" s="21" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="106" s="46" customFormat="1" spans="1:9">
+      <c r="J105" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" s="46" customFormat="1" spans="1:10">
       <c r="A106" s="30">
         <v>105</v>
       </c>
@@ -10312,8 +10315,11 @@
       <c r="I106" s="21" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="107" s="46" customFormat="1" spans="1:9">
+      <c r="J106" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" s="46" customFormat="1" spans="1:10">
       <c r="A107" s="30">
         <v>106</v>
       </c>
@@ -10335,8 +10341,11 @@
       <c r="I107" s="21" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="108" s="46" customFormat="1" spans="1:9">
+      <c r="J107" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" s="46" customFormat="1" spans="1:10">
       <c r="A108" s="30">
         <v>107</v>
       </c>
@@ -10358,8 +10367,11 @@
       <c r="I108" s="21" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="109" s="46" customFormat="1" spans="1:9">
+      <c r="J108" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" s="46" customFormat="1" spans="1:10">
       <c r="A109" s="30">
         <v>108</v>
       </c>
@@ -10381,8 +10393,11 @@
       <c r="I109" s="21" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="110" s="46" customFormat="1" spans="1:9">
+      <c r="J109" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" s="46" customFormat="1" spans="1:10">
       <c r="A110" s="30">
         <v>109</v>
       </c>
@@ -10404,8 +10419,11 @@
       <c r="I110" s="21" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="111" s="46" customFormat="1" spans="1:9">
+      <c r="J110" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" s="46" customFormat="1" spans="1:10">
       <c r="A111" s="30">
         <v>110</v>
       </c>
@@ -10427,8 +10445,11 @@
       <c r="I111" s="21" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="112" s="46" customFormat="1" spans="1:9">
+      <c r="J111" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" s="46" customFormat="1" spans="1:10">
       <c r="A112" s="30">
         <v>111</v>
       </c>
@@ -10450,8 +10471,11 @@
       <c r="I112" s="21" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="113" s="46" customFormat="1" spans="1:9">
+      <c r="J112" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" s="46" customFormat="1" spans="1:10">
       <c r="A113" s="30">
         <v>112</v>
       </c>
@@ -10473,8 +10497,11 @@
       <c r="I113" s="21" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="114" s="46" customFormat="1" spans="1:9">
+      <c r="J113" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" s="46" customFormat="1" spans="1:10">
       <c r="A114" s="30">
         <v>113</v>
       </c>
@@ -10496,8 +10523,11 @@
       <c r="I114" s="21" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="115" s="46" customFormat="1" spans="1:9">
+      <c r="J114" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" s="46" customFormat="1" spans="1:10">
       <c r="A115" s="30">
         <v>114</v>
       </c>
@@ -10519,8 +10549,11 @@
       <c r="I115" s="21" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="116" s="46" customFormat="1" spans="1:9">
+      <c r="J115" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" s="46" customFormat="1" spans="1:10">
       <c r="A116" s="30">
         <v>115</v>
       </c>
@@ -10542,8 +10575,11 @@
       <c r="I116" s="21" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="117" s="46" customFormat="1" spans="1:9">
+      <c r="J116" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" s="46" customFormat="1" spans="1:10">
       <c r="A117" s="30">
         <v>116</v>
       </c>
@@ -10565,8 +10601,11 @@
       <c r="I117" s="21" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="118" s="46" customFormat="1" spans="1:9">
+      <c r="J117" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" s="46" customFormat="1" spans="1:10">
       <c r="A118" s="30">
         <v>117</v>
       </c>
@@ -10588,8 +10627,11 @@
       <c r="I118" s="21" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="119" s="46" customFormat="1" spans="1:9">
+      <c r="J118" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" s="46" customFormat="1" spans="1:10">
       <c r="A119" s="30">
         <v>118</v>
       </c>
@@ -10610,6 +10652,9 @@
       </c>
       <c r="I119" s="21" t="s">
         <v>209</v>
+      </c>
+      <c r="J119" s="46">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/config_7.13/task_server.xlsx
+++ b/config_7.13/task_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -1565,7 +1565,7 @@
     <t>base_fish_id</t>
   </si>
   <si>
-    <t>20,22,23,24,25,26,27,43,46,48,51,63,64,65,66,67,68</t>
+    <t>20,22,23,24,25,26,27,38,39,40,41,43,46,47,48,49,51,63,64,65,66,67,68</t>
   </si>
   <si>
     <t>fish_prop</t>
@@ -2075,10 +2075,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2114,21 +2114,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2150,15 +2165,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2166,39 +2175,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2217,9 +2196,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2233,15 +2236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2249,11 +2243,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2337,13 +2337,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2355,13 +2367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2373,91 +2379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2475,13 +2403,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2525,7 +2525,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2533,8 +2563,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2556,50 +2586,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2618,16 +2609,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2636,133 +2636,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
@@ -7631,10 +7631,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I123" sqref="I123"/>
+      <selection pane="bottomLeft" activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -13082,10 +13082,10 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
